--- a/results/chemical_matches2014.xlsx
+++ b/results/chemical_matches2014.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="587">
   <si>
     <t>given_name</t>
   </si>
@@ -48,6 +48,9 @@
     <t>Angiotension II</t>
   </si>
   <si>
+    <t>PO2</t>
+  </si>
+  <si>
     <t>CBZ</t>
   </si>
   <si>
@@ -57,9 +60,6 @@
     <t>pentose phosphate</t>
   </si>
   <si>
-    <t>triazolo</t>
-  </si>
-  <si>
     <t>DES</t>
   </si>
   <si>
@@ -144,12 +144,6 @@
     <t>BPO</t>
   </si>
   <si>
-    <t>heparan sulphate</t>
-  </si>
-  <si>
-    <t>Heparan sulphate</t>
-  </si>
-  <si>
     <t>NG</t>
   </si>
   <si>
@@ -201,6 +195,9 @@
     <t>pralidoxime-2-chloride</t>
   </si>
   <si>
+    <t>2PAM</t>
+  </si>
+  <si>
     <t>N(6)-cyclopentyl adenosine</t>
   </si>
   <si>
@@ -264,27 +261,24 @@
     <t>CCl4</t>
   </si>
   <si>
-    <t>trifluoroacetyl</t>
-  </si>
-  <si>
-    <t>Trifluoroacetyl</t>
-  </si>
-  <si>
     <t>TAM</t>
   </si>
   <si>
     <t>alpha-T</t>
   </si>
   <si>
+    <t>amine</t>
+  </si>
+  <si>
+    <t>AAP</t>
+  </si>
+  <si>
     <t>AMI</t>
   </si>
   <si>
     <t>DA</t>
   </si>
   <si>
-    <t>contrast medium</t>
-  </si>
-  <si>
     <t>na</t>
   </si>
   <si>
@@ -429,6 +423,9 @@
     <t>D000804</t>
   </si>
   <si>
+    <t>C093415</t>
+  </si>
+  <si>
     <t>D002220</t>
   </si>
   <si>
@@ -438,9 +435,6 @@
     <t>D010428</t>
   </si>
   <si>
-    <t>D014229</t>
-  </si>
-  <si>
     <t>D004054</t>
   </si>
   <si>
@@ -516,9 +510,6 @@
     <t>D000667</t>
   </si>
   <si>
-    <t>D006497</t>
-  </si>
-  <si>
     <t>D008466</t>
   </si>
   <si>
@@ -612,24 +603,24 @@
     <t>D002251</t>
   </si>
   <si>
-    <t>D014269</t>
-  </si>
-  <si>
     <t>D013629</t>
   </si>
   <si>
     <t>D024502</t>
   </si>
   <si>
+    <t>D000588</t>
+  </si>
+  <si>
+    <t>D000082</t>
+  </si>
+  <si>
     <t>D000638</t>
   </si>
   <si>
     <t>D004298</t>
   </si>
   <si>
-    <t>D003287</t>
-  </si>
-  <si>
     <t>D057911</t>
   </si>
   <si>
@@ -756,6 +747,9 @@
     <t>4-Phe-angiotension II</t>
   </si>
   <si>
+    <t>(T(PS2)T(PO2))7T</t>
+  </si>
+  <si>
     <t>CBZ-diol</t>
   </si>
   <si>
@@ -765,9 +759,6 @@
     <t>Pentose Phosphate Pathway</t>
   </si>
   <si>
-    <t>1,2,4-triazolo(4,3-a)quinoxaline</t>
-  </si>
-  <si>
     <t>3,3'-DES</t>
   </si>
   <si>
@@ -840,9 +831,6 @@
     <t>BPO-BGG</t>
   </si>
   <si>
-    <t>heparan sulphate endoglycosidase</t>
-  </si>
-  <si>
     <t>Ng-CAM</t>
   </si>
   <si>
@@ -891,6 +879,9 @@
     <t>pralidoxime chloride</t>
   </si>
   <si>
+    <t>DEP-2PAM</t>
+  </si>
+  <si>
     <t>2-(3-cyclopentyl-1-propyn-1-yl)adenosine</t>
   </si>
   <si>
@@ -948,24 +939,24 @@
     <t>Poisoning, CCl4</t>
   </si>
   <si>
-    <t>trifluoroacetyl-L-phenylalanine</t>
-  </si>
-  <si>
     <t>2'-(FP)-TAM</t>
   </si>
   <si>
     <t>alpha,alpha,alpha-trifluorotoluene</t>
   </si>
   <si>
+    <t>2,4-D amine</t>
+  </si>
+  <si>
+    <t>9-AAP</t>
+  </si>
+  <si>
     <t>AMI-mixture</t>
   </si>
   <si>
     <t>3'-F-dA</t>
   </si>
   <si>
-    <t>contrast medium SBPA</t>
-  </si>
-  <si>
     <t>E-D-Glu-L-Arb</t>
   </si>
   <si>
@@ -1101,6 +1092,9 @@
     <t>C097744</t>
   </si>
   <si>
+    <t>C406744</t>
+  </si>
+  <si>
     <t>C004822</t>
   </si>
   <si>
@@ -1110,9 +1104,6 @@
     <t>D010427</t>
   </si>
   <si>
-    <t>C469661</t>
-  </si>
-  <si>
     <t>C028517</t>
   </si>
   <si>
@@ -1191,9 +1182,6 @@
     <t>C081938</t>
   </si>
   <si>
-    <t>C038253</t>
-  </si>
-  <si>
     <t>D019062</t>
   </si>
   <si>
@@ -1245,6 +1233,9 @@
     <t>C028797</t>
   </si>
   <si>
+    <t>C120291</t>
+  </si>
+  <si>
     <t>C075256</t>
   </si>
   <si>
@@ -1302,24 +1293,24 @@
     <t>D002252</t>
   </si>
   <si>
-    <t>C015556</t>
-  </si>
-  <si>
     <t>C500289</t>
   </si>
   <si>
     <t>C513519</t>
   </si>
   <si>
+    <t>C037991</t>
+  </si>
+  <si>
+    <t>C013398</t>
+  </si>
+  <si>
     <t>C038592</t>
   </si>
   <si>
     <t>C062976</t>
   </si>
   <si>
-    <t>C427127</t>
-  </si>
-  <si>
     <t>C435345</t>
   </si>
   <si>
@@ -1444,6 +1435,348 @@
   </si>
   <si>
     <t>chemical_id</t>
+  </si>
+  <si>
+    <t>hexafluorodiethyl ether</t>
+  </si>
+  <si>
+    <t>Actomycin-D</t>
+  </si>
+  <si>
+    <t>N-[4-(5-nitro-2-furyl)-2-thiazolyl]-formamide</t>
+  </si>
+  <si>
+    <t>uric acid salts</t>
+  </si>
+  <si>
+    <t>gamma-carboxylated</t>
+  </si>
+  <si>
+    <t>5-hydroxytriptamine</t>
+  </si>
+  <si>
+    <t>Antituberculosis</t>
+  </si>
+  <si>
+    <t>neurotensin type-1 receptor antagonist</t>
+  </si>
+  <si>
+    <t>sodium pentothal</t>
+  </si>
+  <si>
+    <t>3alpha-tropyl 2-(p-bromophenyl)propionate</t>
+  </si>
+  <si>
+    <t>angiotensin-converting enzyme (ACE) inhibitor</t>
+  </si>
+  <si>
+    <t>Serotonergic antidepressants</t>
+  </si>
+  <si>
+    <t>serotonergic antidepressants</t>
+  </si>
+  <si>
+    <t>tincture of Crataegus</t>
+  </si>
+  <si>
+    <t>Tincture of Crataegus</t>
+  </si>
+  <si>
+    <t>alcoholic extract of the berries of hawthorn</t>
+  </si>
+  <si>
+    <t>Crataegus oxycantha</t>
+  </si>
+  <si>
+    <t>extract of Daucus carota seeds</t>
+  </si>
+  <si>
+    <t>Daucus carota extract</t>
+  </si>
+  <si>
+    <t>estradiol- and testosterone esters</t>
+  </si>
+  <si>
+    <t>pegylated interferon (IFN) alpha-2b</t>
+  </si>
+  <si>
+    <t>pegylated IFN alpha-2b</t>
+  </si>
+  <si>
+    <t>radiocalcium</t>
+  </si>
+  <si>
+    <t>ifosfamide, vincristine, and dactinomycin</t>
+  </si>
+  <si>
+    <t>N, N'-diisopropylphosphorodiamidofluoridate</t>
+  </si>
+  <si>
+    <t>1-chloro-1,2,2,2-tetrafluoroethane</t>
+  </si>
+  <si>
+    <t>1-bromo-1-chloro-2,2,2-trifluoroethane</t>
+  </si>
+  <si>
+    <t>HCFCs 123 and 124</t>
+  </si>
+  <si>
+    <t>HCFCs 123</t>
+  </si>
+  <si>
+    <t>HCFCs 124</t>
+  </si>
+  <si>
+    <t>angiotensin-releasing blocker</t>
+  </si>
+  <si>
+    <t>N-pyrimidinyl-2-phenoxyacetamides</t>
+  </si>
+  <si>
+    <t>N-pyrimidinyl-2-phenoxyacetamide</t>
+  </si>
+  <si>
+    <t>simvastatin 10 mg-ezetimibe 40 mg</t>
+  </si>
+  <si>
+    <t>Simvastatinezetimibe</t>
+  </si>
+  <si>
+    <t>simvastatinezetimibe</t>
+  </si>
+  <si>
+    <t>8-[(4-amino-l-methylbutyl)amino]- 5-(l-hexyloxy)-6-methoxy-4-methylquinoline</t>
+  </si>
+  <si>
+    <t>combination of amoxicillin and clavulanic acid</t>
+  </si>
+  <si>
+    <t>[3H]-5-azadeoxycytidine</t>
+  </si>
+  <si>
+    <t>Tc99m-Sestamibi</t>
+  </si>
+  <si>
+    <t>aponidine hydrochloride</t>
+  </si>
+  <si>
+    <t>Mexitil-Perlongets</t>
+  </si>
+  <si>
+    <t>desipramine HCl</t>
+  </si>
+  <si>
+    <t>cinacalcet HCl</t>
+  </si>
+  <si>
+    <t>angiotensin converting enzyme (ACE) inhibitors</t>
+  </si>
+  <si>
+    <t>halogenated hydroxyquinolines</t>
+  </si>
+  <si>
+    <t>gamma-HCH</t>
+  </si>
+  <si>
+    <t>t-butyl bicyclo-orthobenzoate</t>
+  </si>
+  <si>
+    <t>9-[[2-methoxy-4-[(methylsulphonyl)amino]phenyl]amino] -N,5-dimethyl- 4-acridinecarboxamide</t>
+  </si>
+  <si>
+    <t>5 - [2- ( 4- ( 3 - fluorobenzylidene) piperidin-1-yl) ethyl] - 4 -(4-fluorophenyl) thiazole-2-carboxamide</t>
+  </si>
+  <si>
+    <t>5,5-dimethyl-3-(3-fluorophenyl)-4-(4-methylsulphonyl) phenyl-2(5H)-furanon</t>
+  </si>
+  <si>
+    <t>2-chloroprocaine-CE</t>
+  </si>
+  <si>
+    <t>L-alpha-glyceryl-phosphorylcholine</t>
+  </si>
+  <si>
+    <t>L-alpha-GFC</t>
+  </si>
+  <si>
+    <t>3SR,4aRS,6SR,8aRS-6-[phosphonomethyl]decahydr oisoquinoline-3- carboxylic acid</t>
+  </si>
+  <si>
+    <t>[3H]-l-arginine</t>
+  </si>
+  <si>
+    <t>[3H]-L-arginine</t>
+  </si>
+  <si>
+    <t>des Arg10 HOE 140</t>
+  </si>
+  <si>
+    <t>des-Arg10HOE 140</t>
+  </si>
+  <si>
+    <t>pegylated interferon alpha 2a</t>
+  </si>
+  <si>
+    <t>3 alpha-tropyl 2-(p-bromophenyl)propionate</t>
+  </si>
+  <si>
+    <t>3-aminopropyl-diethoxy-methyl-phosphinic acid</t>
+  </si>
+  <si>
+    <t>5-hydroxytryptamine4</t>
+  </si>
+  <si>
+    <t>5-hydroxytryptamin1A</t>
+  </si>
+  <si>
+    <t>p-choloroaniline</t>
+  </si>
+  <si>
+    <t>propylthio- uracil</t>
+  </si>
+  <si>
+    <t>p-chlorophenylalamine</t>
+  </si>
+  <si>
+    <t>organophosphorus (OP) poisons</t>
+  </si>
+  <si>
+    <t>D005481</t>
+  </si>
+  <si>
+    <t>D003609</t>
+  </si>
+  <si>
+    <t>D005200</t>
+  </si>
+  <si>
+    <t>D014527|D012492</t>
+  </si>
+  <si>
+    <t>D015055</t>
+  </si>
+  <si>
+    <t>D012701</t>
+  </si>
+  <si>
+    <t>D000995</t>
+  </si>
+  <si>
+    <t>C079087</t>
+  </si>
+  <si>
+    <t>D013874</t>
+  </si>
+  <si>
+    <t>C087567</t>
+  </si>
+  <si>
+    <t>D000806</t>
+  </si>
+  <si>
+    <t>D018490</t>
+  </si>
+  <si>
+    <t>C032109</t>
+  </si>
+  <si>
+    <t>D002132</t>
+  </si>
+  <si>
+    <t>C064227</t>
+  </si>
+  <si>
+    <t>C005238</t>
+  </si>
+  <si>
+    <t>C072959</t>
+  </si>
+  <si>
+    <t>D006221</t>
+  </si>
+  <si>
+    <t>C067411|C072959</t>
+  </si>
+  <si>
+    <t>C067411</t>
+  </si>
+  <si>
+    <t>D010642</t>
+  </si>
+  <si>
+    <t>C492458</t>
+  </si>
+  <si>
+    <t>C068820</t>
+  </si>
+  <si>
+    <t>D019980</t>
+  </si>
+  <si>
+    <t>C014347</t>
+  </si>
+  <si>
+    <t>D017256</t>
+  </si>
+  <si>
+    <t>C016986</t>
+  </si>
+  <si>
+    <t>D008801</t>
+  </si>
+  <si>
+    <t>D003891</t>
+  </si>
+  <si>
+    <t>C476217</t>
+  </si>
+  <si>
+    <t>D006912</t>
+  </si>
+  <si>
+    <t>D001556</t>
+  </si>
+  <si>
+    <t>C046308</t>
+  </si>
+  <si>
+    <t>C042315</t>
+  </si>
+  <si>
+    <t>C121249</t>
+  </si>
+  <si>
+    <t>C106876</t>
+  </si>
+  <si>
+    <t>C004616</t>
+  </si>
+  <si>
+    <t>D005997</t>
+  </si>
+  <si>
+    <t>C070935</t>
+  </si>
+  <si>
+    <t>D001120</t>
+  </si>
+  <si>
+    <t>C078665</t>
+  </si>
+  <si>
+    <t>C100416</t>
+  </si>
+  <si>
+    <t>C066430</t>
+  </si>
+  <si>
+    <t>C004658</t>
+  </si>
+  <si>
+    <t>D011441</t>
+  </si>
+  <si>
+    <t>D010134</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +2164,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1859,13 +2192,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1876,13 +2209,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1893,13 +2226,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1910,13 +2243,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1927,13 +2260,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1944,13 +2277,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1961,13 +2294,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1978,13 +2311,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1995,13 +2328,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2012,13 +2345,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E11" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2029,13 +2362,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E12" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2046,13 +2379,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2063,13 +2396,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E14" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2080,13 +2413,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E15" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2097,13 +2430,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E16" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2114,13 +2447,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E17" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2131,13 +2464,13 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2148,13 +2481,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E19" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2165,13 +2498,13 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2182,13 +2515,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E21" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2199,13 +2532,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2216,13 +2549,13 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E23" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2233,13 +2566,13 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E24" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2250,13 +2583,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2267,13 +2600,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E26" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2284,13 +2617,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E27" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2301,13 +2634,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E28" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2318,13 +2651,13 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2335,13 +2668,13 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E30" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2352,13 +2685,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E31" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2369,13 +2702,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E32" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2386,13 +2719,13 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2403,13 +2736,13 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E34" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2420,13 +2753,13 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E35" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2437,13 +2770,13 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E36" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2454,13 +2787,13 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2471,13 +2804,13 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E38" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2488,13 +2821,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E39" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2505,13 +2838,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E40" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2522,13 +2855,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E41" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2539,13 +2872,13 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2556,13 +2889,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D43" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E43" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2573,13 +2906,13 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="E44" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2590,13 +2923,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E45" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2607,13 +2940,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E46" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2624,13 +2957,13 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="D47" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E47" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2641,13 +2974,13 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E48" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2658,13 +2991,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E49" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2675,13 +3008,13 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D50" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2692,13 +3025,13 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D51" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E51" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2709,13 +3042,13 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D52" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E52" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2726,13 +3059,13 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D53" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E53" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2743,13 +3076,13 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D54" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E54" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2760,13 +3093,13 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D55" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E55" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2777,13 +3110,13 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D56" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E56" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2794,13 +3127,13 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E57" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2808,16 +3141,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D58" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E58" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2825,16 +3158,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E59" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2845,13 +3178,13 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E60" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2862,13 +3195,13 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E61" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2879,13 +3212,13 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D62" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E62" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2896,13 +3229,13 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D63" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E63" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2913,13 +3246,13 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D64" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E64" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2930,13 +3263,13 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D65" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E65" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2947,13 +3280,13 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D66" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E66" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2964,13 +3297,13 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D67" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E67" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2981,13 +3314,13 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D68" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E68" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2998,13 +3331,13 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D69" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="E69" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3015,13 +3348,13 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D70" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="E70" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3032,13 +3365,13 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D71" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E71" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3049,13 +3382,13 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E72" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3066,13 +3399,13 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D73" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E73" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3083,13 +3416,13 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D74" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E74" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3100,13 +3433,13 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="D75" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E75" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3117,13 +3450,13 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="D76" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E76" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3134,13 +3467,13 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D77" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E77" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3151,13 +3484,13 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D78" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E78" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3168,13 +3501,13 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D79" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E79" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3185,13 +3518,13 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D80" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E80" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3202,13 +3535,13 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D81" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E81" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3219,13 +3552,13 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D82" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E82" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3236,13 +3569,13 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D83" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E83" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3253,13 +3586,13 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D84" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E84" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3270,13 +3603,13 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D85" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="E85" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3287,13 +3620,13 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="D86" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="E86" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3304,13 +3637,13 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D87" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="E87" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3321,13 +3654,13 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="D88" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="E88" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3338,13 +3671,13 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D89" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E89" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3355,13 +3688,13 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D90" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E90" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3372,13 +3705,13 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D91" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E91" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3389,13 +3722,13 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D92" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E92" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3406,13 +3739,13 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D93" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E93" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3423,13 +3756,13 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D94" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E94" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3440,13 +3773,13 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D95" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E95" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3457,13 +3790,13 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D96" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E96" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3474,13 +3807,13 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D97" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E97" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3491,13 +3824,13 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E98" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3508,13 +3841,13 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D99" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E99" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3525,13 +3858,13 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D100" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E100" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3542,13 +3875,13 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D101" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E101" t="s">
-        <v>446</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3559,13 +3892,13 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D102" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E102" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3576,13 +3909,13 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D103" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E103" t="s">
-        <v>164</v>
+        <v>446</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3593,13 +3926,13 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D104" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E104" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3610,13 +3943,13 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D105" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E105" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3627,13 +3960,13 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D106" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E106" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3644,13 +3977,13 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D107" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E107" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3661,13 +3994,13 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="D108" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E108" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3678,13 +4011,13 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D109" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E109" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3695,13 +4028,13 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="D110" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E110" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3712,13 +4045,13 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D111" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E111" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3729,13 +4062,13 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="D112" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E112" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3746,13 +4079,13 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D113" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E113" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3763,13 +4096,13 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D114" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E114" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3780,13 +4113,13 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D115" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E115" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3797,13 +4130,13 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D116" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E116" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3814,13 +4147,13 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D117" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E117" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3831,13 +4164,13 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D118" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E118" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3848,13 +4181,13 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D119" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E119" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3865,13 +4198,13 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D120" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E120" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3882,13 +4215,13 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D121" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E121" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3899,13 +4232,13 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D122" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E122" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3916,13 +4249,13 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="D123" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E123" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3933,13 +4266,13 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D124" t="s">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="E124" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3950,13 +4283,13 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="D125" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E125" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3967,13 +4300,13 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D126" t="s">
-        <v>128</v>
+        <v>351</v>
       </c>
       <c r="E126" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3984,13 +4317,13 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="D127" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E127" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3998,50 +4331,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="C128" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D128" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="E128" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
-        <v>131</v>
-      </c>
-      <c r="C129" t="s">
-        <v>239</v>
-      </c>
-      <c r="D129" t="s">
-        <v>355</v>
-      </c>
-      <c r="E129" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
-        <v>87</v>
-      </c>
-      <c r="C130" t="s">
-        <v>240</v>
-      </c>
-      <c r="D130" t="s">
-        <v>314</v>
-      </c>
-      <c r="E130" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -4051,18 +4350,766 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>474</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>475</v>
+      </c>
+      <c r="C4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C12" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>484</v>
+      </c>
+      <c r="C13" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>485</v>
+      </c>
+      <c r="C14" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>486</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>487</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>488</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>489</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>490</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>491</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>492</v>
+      </c>
+      <c r="C21" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>493</v>
+      </c>
+      <c r="C22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>494</v>
+      </c>
+      <c r="C23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>495</v>
+      </c>
+      <c r="C24" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>496</v>
+      </c>
+      <c r="C25" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>497</v>
+      </c>
+      <c r="C26" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>498</v>
+      </c>
+      <c r="C27" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>499</v>
+      </c>
+      <c r="C28" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C29" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>501</v>
+      </c>
+      <c r="C30" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>502</v>
+      </c>
+      <c r="C31" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>504</v>
+      </c>
+      <c r="C33" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>505</v>
+      </c>
+      <c r="C34" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>506</v>
+      </c>
+      <c r="C35" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>507</v>
+      </c>
+      <c r="C36" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>508</v>
+      </c>
+      <c r="C37" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>509</v>
+      </c>
+      <c r="C38" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>510</v>
+      </c>
+      <c r="C39" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>511</v>
+      </c>
+      <c r="C40" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>512</v>
+      </c>
+      <c r="C41" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>513</v>
+      </c>
+      <c r="C42" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>514</v>
+      </c>
+      <c r="C43" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>515</v>
+      </c>
+      <c r="C44" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>516</v>
+      </c>
+      <c r="C45" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>517</v>
+      </c>
+      <c r="C46" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>518</v>
+      </c>
+      <c r="C47" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>519</v>
+      </c>
+      <c r="C48" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>520</v>
+      </c>
+      <c r="C49" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>521</v>
+      </c>
+      <c r="C50" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>522</v>
+      </c>
+      <c r="C51" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>523</v>
+      </c>
+      <c r="C52" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>524</v>
+      </c>
+      <c r="C53" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>525</v>
+      </c>
+      <c r="C54" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>526</v>
+      </c>
+      <c r="C55" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>527</v>
+      </c>
+      <c r="C56" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>528</v>
+      </c>
+      <c r="C57" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>529</v>
+      </c>
+      <c r="C58" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>530</v>
+      </c>
+      <c r="C59" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>531</v>
+      </c>
+      <c r="C60" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>532</v>
+      </c>
+      <c r="C61" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>533</v>
+      </c>
+      <c r="C62" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>534</v>
+      </c>
+      <c r="C63" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>535</v>
+      </c>
+      <c r="C64" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>536</v>
+      </c>
+      <c r="C65" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>537</v>
+      </c>
+      <c r="C66" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>538</v>
+      </c>
+      <c r="C67" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>539</v>
+      </c>
+      <c r="C68" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>540</v>
+      </c>
+      <c r="C69" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/results/chemical_matches2014.xlsx
+++ b/results/chemical_matches2014.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="561">
   <si>
     <t>given_name</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Angiotension II</t>
   </si>
   <si>
-    <t>PO2</t>
-  </si>
-  <si>
     <t>CBZ</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>LA</t>
   </si>
   <si>
-    <t>oral-contraceptive</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>ZDV</t>
   </si>
   <si>
-    <t>beta-lactam</t>
-  </si>
-  <si>
     <t>AX</t>
   </si>
   <si>
@@ -195,9 +186,6 @@
     <t>pralidoxime-2-chloride</t>
   </si>
   <si>
-    <t>2PAM</t>
-  </si>
-  <si>
     <t>N(6)-cyclopentyl adenosine</t>
   </si>
   <si>
@@ -267,12 +255,6 @@
     <t>alpha-T</t>
   </si>
   <si>
-    <t>amine</t>
-  </si>
-  <si>
-    <t>AAP</t>
-  </si>
-  <si>
     <t>AMI</t>
   </si>
   <si>
@@ -381,9 +363,6 @@
     <t>PAC</t>
   </si>
   <si>
-    <t>glutamine</t>
-  </si>
-  <si>
     <t>E2</t>
   </si>
   <si>
@@ -423,9 +402,6 @@
     <t>D000804</t>
   </si>
   <si>
-    <t>C093415</t>
-  </si>
-  <si>
     <t>D002220</t>
   </si>
   <si>
@@ -471,63 +447,60 @@
     <t>D019344</t>
   </si>
   <si>
+    <t>D009569</t>
+  </si>
+  <si>
+    <t>D014579</t>
+  </si>
+  <si>
+    <t>D020123</t>
+  </si>
+  <si>
+    <t>D002996</t>
+  </si>
+  <si>
+    <t>D014867</t>
+  </si>
+  <si>
+    <t>D009599</t>
+  </si>
+  <si>
+    <t>D008628</t>
+  </si>
+  <si>
+    <t>D015215</t>
+  </si>
+  <si>
+    <t>D000658</t>
+  </si>
+  <si>
+    <t>D010400</t>
+  </si>
+  <si>
+    <t>D000667</t>
+  </si>
+  <si>
+    <t>D008466</t>
+  </si>
+  <si>
+    <t>D008727</t>
+  </si>
+  <si>
+    <t>D003520</t>
+  </si>
+  <si>
+    <t>C085788</t>
+  </si>
+  <si>
+    <t>D001127</t>
+  </si>
+  <si>
+    <t>D018021</t>
+  </si>
+  <si>
     <t>D003276</t>
   </si>
   <si>
-    <t>D009569</t>
-  </si>
-  <si>
-    <t>D014579</t>
-  </si>
-  <si>
-    <t>D020123</t>
-  </si>
-  <si>
-    <t>D002996</t>
-  </si>
-  <si>
-    <t>D014867</t>
-  </si>
-  <si>
-    <t>D009599</t>
-  </si>
-  <si>
-    <t>D008628</t>
-  </si>
-  <si>
-    <t>D015215</t>
-  </si>
-  <si>
-    <t>D047090</t>
-  </si>
-  <si>
-    <t>D000658</t>
-  </si>
-  <si>
-    <t>D010400</t>
-  </si>
-  <si>
-    <t>D000667</t>
-  </si>
-  <si>
-    <t>D008466</t>
-  </si>
-  <si>
-    <t>D008727</t>
-  </si>
-  <si>
-    <t>D003520</t>
-  </si>
-  <si>
-    <t>C085788</t>
-  </si>
-  <si>
-    <t>D001127</t>
-  </si>
-  <si>
-    <t>D018021</t>
-  </si>
-  <si>
     <t>C050232</t>
   </si>
   <si>
@@ -609,12 +582,6 @@
     <t>D024502</t>
   </si>
   <si>
-    <t>D000588</t>
-  </si>
-  <si>
-    <t>D000082</t>
-  </si>
-  <si>
     <t>D000638</t>
   </si>
   <si>
@@ -708,9 +675,6 @@
     <t>D017239</t>
   </si>
   <si>
-    <t>D018698</t>
-  </si>
-  <si>
     <t>D004958</t>
   </si>
   <si>
@@ -747,9 +711,6 @@
     <t>4-Phe-angiotension II</t>
   </si>
   <si>
-    <t>(T(PS2)T(PO2))7T</t>
-  </si>
-  <si>
     <t>CBZ-diol</t>
   </si>
   <si>
@@ -789,9 +750,6 @@
     <t>C-LA(n)</t>
   </si>
   <si>
-    <t>Pearl Oral Contraceptive</t>
-  </si>
-  <si>
     <t>NO-1-B</t>
   </si>
   <si>
@@ -819,9 +777,6 @@
     <t>ZDV-CDS</t>
   </si>
   <si>
-    <t>beta-Lactam Resistance</t>
-  </si>
-  <si>
     <t>AX 300</t>
   </si>
   <si>
@@ -879,9 +834,6 @@
     <t>pralidoxime chloride</t>
   </si>
   <si>
-    <t>DEP-2PAM</t>
-  </si>
-  <si>
     <t>2-(3-cyclopentyl-1-propyn-1-yl)adenosine</t>
   </si>
   <si>
@@ -945,12 +897,6 @@
     <t>alpha,alpha,alpha-trifluorotoluene</t>
   </si>
   <si>
-    <t>2,4-D amine</t>
-  </si>
-  <si>
-    <t>9-AAP</t>
-  </si>
-  <si>
     <t>AMI-mixture</t>
   </si>
   <si>
@@ -1053,9 +999,6 @@
     <t>1-PAC</t>
   </si>
   <si>
-    <t>Glutamine</t>
-  </si>
-  <si>
     <t>E2-3,4-Q</t>
   </si>
   <si>
@@ -1092,9 +1035,6 @@
     <t>C097744</t>
   </si>
   <si>
-    <t>C406744</t>
-  </si>
-  <si>
     <t>C004822</t>
   </si>
   <si>
@@ -1137,9 +1077,6 @@
     <t>C464654</t>
   </si>
   <si>
-    <t>D019304</t>
-  </si>
-  <si>
     <t>C405005</t>
   </si>
   <si>
@@ -1167,9 +1104,6 @@
     <t>C056534</t>
   </si>
   <si>
-    <t>D018440</t>
-  </si>
-  <si>
     <t>C029349</t>
   </si>
   <si>
@@ -1233,9 +1167,6 @@
     <t>C028797</t>
   </si>
   <si>
-    <t>C120291</t>
-  </si>
-  <si>
     <t>C075256</t>
   </si>
   <si>
@@ -1299,12 +1230,6 @@
     <t>C513519</t>
   </si>
   <si>
-    <t>C037991</t>
-  </si>
-  <si>
-    <t>C013398</t>
-  </si>
-  <si>
     <t>C038592</t>
   </si>
   <si>
@@ -1402,9 +1327,6 @@
   </si>
   <si>
     <t>C054549</t>
-  </si>
-  <si>
-    <t>D005973</t>
   </si>
   <si>
     <t>C500988</t>
@@ -2164,7 +2086,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2192,13 +2114,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2209,13 +2131,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2226,13 +2148,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2243,13 +2165,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2260,13 +2182,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E6" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2277,13 +2199,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2294,13 +2216,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E8" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2311,13 +2233,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2328,13 +2250,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E10" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2345,13 +2267,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2362,13 +2284,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2379,13 +2301,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="E13" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2396,13 +2318,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2413,13 +2335,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E15" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2430,13 +2352,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E16" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2447,13 +2369,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E17" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2464,13 +2386,13 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D18" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E18" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2481,13 +2403,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E19" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2498,13 +2420,13 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E20" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2515,13 +2437,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D21" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E21" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2532,13 +2454,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D22" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E22" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2549,13 +2471,13 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E23" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2566,13 +2488,13 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E24" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2583,13 +2505,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="E25" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2600,13 +2522,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D26" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E26" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2617,13 +2539,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D27" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E27" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2634,13 +2556,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E28" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2651,13 +2573,13 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E29" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2668,13 +2590,13 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E30" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2685,13 +2607,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E31" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2702,13 +2624,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E32" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2719,13 +2641,13 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D33" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E33" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2736,13 +2658,13 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>267</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2753,13 +2675,13 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="E35" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2770,13 +2692,13 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E36" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2787,13 +2709,13 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="E37" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2804,13 +2726,13 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E38" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2821,13 +2743,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D39" t="s">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2838,13 +2760,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E40" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2855,13 +2777,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="E41" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2872,13 +2794,13 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="E42" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2889,13 +2811,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E43" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2906,13 +2828,13 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D44" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E44" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2923,13 +2845,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E45" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2940,13 +2862,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E46" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2957,13 +2879,13 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E47" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2974,13 +2896,13 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D48" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E48" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2991,13 +2913,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E49" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3008,13 +2930,13 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D50" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E50" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3025,13 +2947,13 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D51" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E51" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3042,13 +2964,13 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D52" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E52" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3059,13 +2981,13 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D53" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E53" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3073,16 +2995,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D54" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="E54" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3090,16 +3012,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D55" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="E55" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3107,16 +3029,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="E56" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3124,16 +3046,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D57" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E57" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3141,16 +3063,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D58" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E58" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3161,13 +3083,13 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D59" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="E59" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3178,13 +3100,13 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D60" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="E60" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3195,13 +3117,13 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D61" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E61" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3212,13 +3134,13 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D62" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="E62" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3229,13 +3151,13 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E63" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3246,13 +3168,13 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D64" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E64" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3263,13 +3185,13 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D65" t="s">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="E65" t="s">
-        <v>412</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3280,13 +3202,13 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D66" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="E66" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3297,13 +3219,13 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D67" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E67" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3317,10 +3239,10 @@
         <v>180</v>
       </c>
       <c r="D68" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E68" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3331,13 +3253,13 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D69" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E69" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3348,13 +3270,13 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D70" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="E70" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3365,13 +3287,13 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="D71" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E71" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3382,13 +3304,13 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D72" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E72" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3399,13 +3321,13 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D73" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E73" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3416,13 +3338,13 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D74" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E74" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3433,13 +3355,13 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="D75" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="E75" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3450,13 +3372,13 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D76" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E76" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3467,13 +3389,13 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D77" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E77" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3484,13 +3406,13 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D78" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E78" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3501,13 +3423,13 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D79" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="E79" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3518,13 +3440,13 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="D80" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="E80" t="s">
-        <v>426</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3535,13 +3457,13 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E81" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3552,13 +3474,13 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D82" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="E82" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3569,13 +3491,13 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D83" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="E83" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3586,13 +3508,13 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D84" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E84" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3603,13 +3525,13 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D85" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E85" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3620,13 +3542,13 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="D86" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="E86" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3637,13 +3559,13 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D87" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E87" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3654,13 +3576,13 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D88" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="E88" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3671,13 +3593,13 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D89" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E89" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3688,13 +3610,13 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D90" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E90" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3705,13 +3627,13 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D91" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E91" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3722,13 +3644,13 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D92" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E92" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3739,13 +3661,13 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D93" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E93" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3756,13 +3678,13 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D94" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E94" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3773,13 +3695,13 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D95" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="E95" t="s">
-        <v>439</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3790,13 +3712,13 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D96" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E96" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3807,13 +3729,13 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E97" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3824,13 +3746,13 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D98" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E98" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3841,13 +3763,13 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D99" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E99" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3858,13 +3780,13 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D100" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E100" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3875,13 +3797,13 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D101" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="E101" t="s">
-        <v>162</v>
+        <v>425</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3892,13 +3814,13 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="D102" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E102" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3909,13 +3831,13 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D103" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="E103" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3926,13 +3848,13 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="D104" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E104" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3943,13 +3865,13 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D105" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E105" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3960,13 +3882,13 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D106" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E106" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3977,13 +3899,13 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D107" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E107" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3994,13 +3916,13 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D108" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E108" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4011,13 +3933,13 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D109" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="E109" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4028,13 +3950,13 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="D110" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E110" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4045,13 +3967,13 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D111" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E111" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4062,13 +3984,13 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D112" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E112" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4079,13 +4001,13 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D113" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E113" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4096,13 +4018,13 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D114" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="E114" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4113,13 +4035,13 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D115" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E115" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4130,13 +4052,13 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="D116" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E116" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4147,13 +4069,13 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D117" t="s">
-        <v>343</v>
+        <v>119</v>
       </c>
       <c r="E117" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4164,13 +4086,13 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="D118" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="E118" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4181,13 +4103,13 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D119" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="E119" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4198,13 +4120,13 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D120" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="E120" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4212,135 +4134,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="C121" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D121" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="E121" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>124</v>
-      </c>
-      <c r="C122" t="s">
-        <v>233</v>
-      </c>
-      <c r="D122" t="s">
-        <v>348</v>
-      </c>
-      <c r="E122" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>125</v>
-      </c>
-      <c r="C123" t="s">
-        <v>166</v>
-      </c>
-      <c r="D123" t="s">
-        <v>349</v>
-      </c>
-      <c r="E123" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" t="s">
-        <v>126</v>
-      </c>
-      <c r="C124" t="s">
-        <v>234</v>
-      </c>
-      <c r="D124" t="s">
-        <v>126</v>
-      </c>
-      <c r="E124" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" t="s">
-        <v>127</v>
-      </c>
-      <c r="C125" t="s">
-        <v>132</v>
-      </c>
-      <c r="D125" t="s">
-        <v>350</v>
-      </c>
-      <c r="E125" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>128</v>
-      </c>
-      <c r="C126" t="s">
-        <v>235</v>
-      </c>
-      <c r="D126" t="s">
-        <v>351</v>
-      </c>
-      <c r="E126" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
-        <v>129</v>
-      </c>
-      <c r="C127" t="s">
-        <v>236</v>
-      </c>
-      <c r="D127" t="s">
-        <v>352</v>
-      </c>
-      <c r="E127" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
-        <v>86</v>
-      </c>
-      <c r="C128" t="s">
-        <v>237</v>
-      </c>
-      <c r="D128" t="s">
-        <v>312</v>
-      </c>
-      <c r="E128" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -4358,10 +4161,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4369,10 +4172,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="C2" t="s">
-        <v>541</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4380,10 +4183,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="C3" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4391,10 +4194,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="C4" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4402,10 +4205,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="C5" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4413,10 +4216,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="C6" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4424,10 +4227,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="C7" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4435,10 +4238,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="C8" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4446,10 +4249,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="C9" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4457,10 +4260,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="C10" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4468,10 +4271,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="C11" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4479,10 +4282,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="C12" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4490,10 +4293,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="C13" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4501,10 +4304,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="C14" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4512,10 +4315,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4523,10 +4326,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4534,10 +4337,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4545,10 +4348,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4556,10 +4359,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="C19" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4567,10 +4370,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4578,10 +4381,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="C21" t="s">
-        <v>553</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4589,10 +4392,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4600,10 +4403,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4611,10 +4414,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="C24" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4622,10 +4425,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="C25" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4633,10 +4436,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="C26" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4644,10 +4447,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="C27" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4655,10 +4458,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="C28" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4666,10 +4469,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="C29" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4677,10 +4480,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="C30" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4688,10 +4491,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="C31" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4699,10 +4502,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4710,10 +4513,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="C33" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4721,10 +4524,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="C34" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4732,10 +4535,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="C35" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4743,10 +4546,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="C36" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4754,10 +4557,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="C37" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4765,10 +4568,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="C38" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4776,10 +4579,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="C39" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4787,10 +4590,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="C40" t="s">
-        <v>565</v>
+        <v>539</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4798,10 +4601,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="C41" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4809,10 +4612,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="C42" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4820,10 +4623,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="C43" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4831,10 +4634,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="C44" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4842,10 +4645,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="C45" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4853,10 +4656,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="C46" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4864,10 +4667,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="C47" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4875,10 +4678,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="C48" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4886,10 +4689,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="C49" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4897,10 +4700,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="C50" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4908,10 +4711,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="C51" t="s">
-        <v>575</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4919,10 +4722,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="C52" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4930,10 +4733,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="C53" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4941,10 +4744,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="C54" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4952,10 +4755,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="C55" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4963,10 +4766,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="C56" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4974,10 +4777,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="C57" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4985,10 +4788,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="C58" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4996,10 +4799,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="C59" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5007,10 +4810,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="C60" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5018,10 +4821,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="C61" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5029,10 +4832,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="C62" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5040,10 +4843,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="C63" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5051,10 +4854,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="C64" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5062,10 +4865,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="C65" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5073,10 +4876,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="C66" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5084,10 +4887,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="C67" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5095,10 +4898,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="C68" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5106,10 +4909,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="C69" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
